--- a/results/minimal_seats-krohn_example.xlsx
+++ b/results/minimal_seats-krohn_example.xlsx
@@ -14,9 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Key</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="19">
+  <si>
+    <t>Value_1</t>
+  </si>
+  <si>
+    <t>Value_2</t>
+  </si>
+  <si>
+    <t>Key_1</t>
+  </si>
+  <si>
+    <t>Key_2</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
   </si>
   <si>
     <t>A</t>
@@ -44,24 +71,6 @@
   </si>
   <si>
     <t>I</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
   </si>
 </sst>
 </file>
@@ -419,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,215 +447,761 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>17</v>
+      </c>
+      <c r="B38">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
         <v>17</v>
       </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-      <c r="E3">
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
         <v>9</v>
       </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="D55" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
